--- a/players_stats/Josh Davis.xlsx
+++ b/players_stats/Josh Davis.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1976-77</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,82 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>79</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="n">
-        <v>1451</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>531</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
       <c r="Q2" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>531</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>0.441</v>
+        <v>0.667</v>
       </c>
       <c r="T2" t="n">
-        <v>0.441</v>
+        <v>0.4</v>
       </c>
       <c r="U2" t="n">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.794</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
       <c r="AE2" t="n">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>634</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 106 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -653,9 +663,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>22</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -666,15 +674,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1977-78</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -684,84 +692,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
       <c r="J3" t="n">
-        <v>2188</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="L3" t="n">
-        <v>756</v>
+        <v>111</v>
       </c>
       <c r="M3" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>0.3779999999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.358</v>
+      </c>
       <c r="Q3" t="n">
-        <v>343</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>756</v>
+        <v>58</v>
       </c>
       <c r="S3" t="n">
-        <v>0.454</v>
+        <v>0.397</v>
       </c>
       <c r="T3" t="n">
-        <v>0.454</v>
+        <v>0.464</v>
       </c>
       <c r="U3" t="n">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="V3" t="n">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="W3" t="n">
-        <v>0.828</v>
+        <v>0.8240000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="Z3" t="n">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="n">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AF3" t="n">
-        <v>874</v>
+        <v>117</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 106 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -769,9 +785,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>22</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -782,15 +796,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1978-79</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -800,84 +814,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>79</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
-        <v>2971</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
-        <v>565</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>1240</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>0.286</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
       <c r="Q4" t="n">
-        <v>565</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1240</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>0.456</v>
+        <v>0.4</v>
       </c>
       <c r="T4" t="n">
-        <v>0.456</v>
+        <v>0.286</v>
       </c>
       <c r="U4" t="n">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7929999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="X4" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="n">
-        <v>453</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="n">
-        <v>1444</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 106 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -885,9 +907,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>22</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -898,15 +918,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1979-80</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -916,90 +936,90 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>82</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
-        <v>2912</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1159</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>0.428</v>
+        <v>0.25</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1117</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>0.44</v>
+        <v>0.333</v>
       </c>
       <c r="T5" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="U5" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>352</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.8640000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="AF5" t="n">
-        <v>1300</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 106 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1007,9 +1027,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ5" t="n">
-        <v>22</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1020,7 +1038,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1028,7 +1046,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1038,90 +1056,82 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="n">
-        <v>2536</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>917</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>884</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>299</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.7959999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 106 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1129,9 +1139,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ6" t="n">
-        <v>22</v>
-      </c>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1142,15 +1150,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1160,92 +1168,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2664</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1153</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>0.467</v>
+        <v>0.333</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1126</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>0.473</v>
+        <v>0.5</v>
       </c>
       <c r="T7" t="n">
-        <v>0.469</v>
+        <v>0.333</v>
       </c>
       <c r="U7" t="n">
-        <v>315</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>0.799</v>
+        <v>0.667</v>
       </c>
       <c r="X7" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1396</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 106 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1253,9 +1261,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
-        <v>22</v>
-      </c>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1266,110 +1272,110 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1982-83</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D8" t="n">
+        <v>31</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>130</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
         <v>27</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>53</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1465</v>
-      </c>
-      <c r="K8" t="n">
-        <v>258</v>
-      </c>
-      <c r="L8" t="n">
-        <v>567</v>
-      </c>
       <c r="M8" t="n">
-        <v>0.455</v>
+        <v>0.37</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P8" t="n">
-        <v>0.278</v>
+        <v>0.308</v>
       </c>
       <c r="Q8" t="n">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>549</v>
+        <v>14</v>
       </c>
       <c r="S8" t="n">
-        <v>0.461</v>
+        <v>0.429</v>
       </c>
       <c r="T8" t="n">
-        <v>0.459</v>
+        <v>0.444</v>
       </c>
       <c r="U8" t="n">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7959999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X8" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>315</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>685</v>
+        <v>28</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 106 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1377,9 +1383,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ8" t="n">
-        <v>22</v>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1390,17 +1394,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1983-84</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>28</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -1408,92 +1406,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I9" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2079</v>
+        <v>498</v>
       </c>
       <c r="K9" t="n">
-        <v>354</v>
+        <v>56</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.373</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.329</v>
       </c>
       <c r="Q9" t="n">
-        <v>354</v>
+        <v>33</v>
       </c>
       <c r="R9" t="n">
-        <v>792</v>
+        <v>80</v>
       </c>
       <c r="S9" t="n">
-        <v>0.447</v>
+        <v>0.413</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="U9" t="n">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="V9" t="n">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="W9" t="n">
-        <v>0.848</v>
+        <v>0.7240000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y9" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="n">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="AA9" t="n">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>925</v>
+        <v>156</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 106 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1501,623 +1499,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1984-85</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>29</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>76</v>
-      </c>
-      <c r="I10" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1920</v>
-      </c>
-      <c r="K10" t="n">
-        <v>337</v>
-      </c>
-      <c r="L10" t="n">
-        <v>791</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12</v>
-      </c>
-      <c r="O10" t="n">
-        <v>46</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>325</v>
-      </c>
-      <c r="R10" t="n">
-        <v>745</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="U10" t="n">
-        <v>255</v>
-      </c>
-      <c r="V10" t="n">
-        <v>300</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="X10" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>119</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>426</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>152</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>136</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>941</v>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1985-86</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>30</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TOT</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>66</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1014</v>
-      </c>
-      <c r="K11" t="n">
-        <v>148</v>
-      </c>
-      <c r="L11" t="n">
-        <v>344</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>13</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>145</v>
-      </c>
-      <c r="R11" t="n">
-        <v>331</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.4379999999999999</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="U11" t="n">
-        <v>118</v>
-      </c>
-      <c r="V11" t="n">
-        <v>138</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>217</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>417</v>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ11" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1985-86</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>30</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>39</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>612</v>
-      </c>
-      <c r="K12" t="n">
-        <v>102</v>
-      </c>
-      <c r="L12" t="n">
-        <v>237</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>11</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>100</v>
-      </c>
-      <c r="R12" t="n">
-        <v>226</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="U12" t="n">
-        <v>67</v>
-      </c>
-      <c r="V12" t="n">
-        <v>79</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="X12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>105</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>273</v>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ12" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1985-86</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>30</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>27</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>402</v>
-      </c>
-      <c r="K13" t="n">
-        <v>46</v>
-      </c>
-      <c r="L13" t="n">
-        <v>107</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>45</v>
-      </c>
-      <c r="R13" t="n">
-        <v>105</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="U13" t="n">
-        <v>51</v>
-      </c>
-      <c r="V13" t="n">
-        <v>59</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.8640000000000001</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>112</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>144</v>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ13" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>750</v>
-      </c>
-      <c r="I14" t="n">
-        <v>212</v>
-      </c>
-      <c r="J14" t="n">
-        <v>21200</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3699</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8258</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="N14" t="n">
-        <v>33</v>
-      </c>
-      <c r="O14" t="n">
-        <v>187</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3666</v>
-      </c>
-      <c r="R14" t="n">
-        <v>8071</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2279</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2777</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="X14" t="n">
-        <v>560</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>945</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1505</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3368</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>683</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1398</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1469</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9710</v>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ14" t="n">
-        <v>22</v>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
